--- a/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,14</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>27,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>53,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,84</t>
+          <t>0,41; 11,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 39,02</t>
+          <t>9,21; 22,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 18,13</t>
+          <t>5,8; 17,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,75</t>
+          <t>14,71; 40,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 52,78</t>
+          <t>1,26; 55,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,58; 93,13</t>
+          <t>30,48; 105,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,32; 65,69</t>
+          <t>21,27; 79,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 64,51</t>
+          <t>24,29; 95,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>16,37</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>19,8</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>187,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>61,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,9</t>
+          <t>-0,39; 4,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 24,68</t>
+          <t>2,0; 42,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 21,51</t>
+          <t>-0,06; 4,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,34</t>
+          <t>14,3; 24,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 38,22</t>
+          <t>-2,06; 24,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,37; 85,77</t>
+          <t>20,71; 630,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 207,41</t>
+          <t>-0,63; 45,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 21,18</t>
+          <t>40,87; 83,04</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>11,75</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>41,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>33,52%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,97</t>
+          <t>-2,18; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 17,32</t>
+          <t>-0,05; 6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>-1,34; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,29</t>
+          <t>5,64; 17,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 42,98</t>
+          <t>-16,4; 38,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 68,54</t>
+          <t>-1,1; 86,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 78,61</t>
+          <t>-16,62; 86,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 35,54</t>
+          <t>17,51; 67,02</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>139,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,86%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>53,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,58</t>
+          <t>0,3; 4,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 21,95</t>
+          <t>6,33; 37,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 16,2</t>
+          <t>2,36; 5,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,29</t>
+          <t>14,6; 21,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 37,1</t>
+          <t>1,53; 24,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,3; 69,56</t>
+          <t>53,49; 414,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,78; 122,97</t>
+          <t>17,57; 50,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 22,02</t>
+          <t>40,69; 70,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 11,65</t>
+          <t>2,41; 13,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 22,38</t>
+          <t>9,59; 22,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 40,13</t>
+          <t>15,71; 40,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 55,54</t>
+          <t>9,21; 65,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,48; 105,9</t>
+          <t>31,85; 105,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 95,75</t>
+          <t>25,98; 99,72</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,25</t>
+          <t>0,47; 4,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 42,64</t>
+          <t>2,38; 46,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 24,51</t>
+          <t>14,98; 24,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 24,18</t>
+          <t>2,66; 30,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 630,83</t>
+          <t>24,35; 651,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,87; 83,04</t>
+          <t>43,05; 82,81</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,96</t>
+          <t>-1,61; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,72</t>
+          <t>0,01; 7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,22</t>
+          <t>5,92; 17,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 38,84</t>
+          <t>-13,49; 42,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 86,36</t>
+          <t>0,1; 94,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 67,02</t>
+          <t>19,37; 68,13</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,08</t>
+          <t>1,33; 4,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 37,64</t>
+          <t>6,24; 37,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,6; 21,87</t>
+          <t>13,96; 21,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 24,08</t>
+          <t>7,96; 31,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,49; 414,47</t>
+          <t>53,15; 437,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,69; 70,82</t>
+          <t>38,59; 69,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGÍA-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15,57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27,76</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11,94</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7,95</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,76</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>62,76%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>34,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>63,12%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>53,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,15; 22,04</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15,71; 40,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 17,11</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,41; 13,25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 22,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,8; 17,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>15,71; 40,44</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>31,81; 105,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25,98; 99,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,27; 79,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>9,21; 65,45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>31,85; 105,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>21,27; 79,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>25,98; 99,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19,8</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,64</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,8</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>15,8%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>187,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>61,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,3; 4,16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 24,71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 4,81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,47; 4,81</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 46,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 4,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>14,98; 24,71</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-2,64; 44,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43,05; 82,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 45,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,66; 30,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>24,35; 651,27</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 45,5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>43,05; 82,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11,75</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,28</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,75</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>45,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>12,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>37,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>41,43%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,69; 7,81</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 17,07</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 4,37</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-1,61; 3,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 7,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 4,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 17,07</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,37; 103,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 68,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 86,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-13,49; 42,81</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 94,01</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 86,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,37; 68,13</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18,16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,02</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>14,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,16</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>52,64%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>19,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>139,53%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>34,13%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>53,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,4; 8,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 21,87</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 5,86</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1,33; 4,69</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 37,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 5,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,96; 21,87</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>33,11; 74,9</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38,59; 69,55</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 50,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>7,96; 31,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>53,15; 437,51</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 50,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>38,59; 69,55</t>
         </is>
       </c>
     </row>
